--- a/개발문서/영화관 - WBS.xlsx
+++ b/개발문서/영화관 - WBS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>태스크</t>
   </si>
@@ -64,19 +64,16 @@
     <t xml:space="preserve">   메뉴 구조도</t>
   </si>
   <si>
-    <t>진행중</t>
-  </si>
-  <si>
     <t xml:space="preserve">   기능 정의</t>
   </si>
   <si>
     <t xml:space="preserve">   화면 설계</t>
   </si>
   <si>
-    <t xml:space="preserve">   화면 흐름도</t>
+    <t xml:space="preserve">      화면 흐름도</t>
   </si>
   <si>
-    <t xml:space="preserve">   화면 정의</t>
+    <t xml:space="preserve">      화면 정의</t>
   </si>
   <si>
     <t xml:space="preserve">   클래스 설계</t>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">   DB 설계</t>
+  </si>
+  <si>
+    <t>진행중</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ERD</t>
   </si>
   <si>
     <t xml:space="preserve">      테이블 목록</t>
@@ -122,9 +125,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yy/m/d"/>
+    <numFmt numFmtId="166" formatCode="yy-mm-dd"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -165,12 +169,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -350,14 +354,14 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -424,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -472,7 +476,7 @@
     <xf borderId="8" fillId="2" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -484,7 +488,7 @@
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -508,18 +512,15 @@
     <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -529,38 +530,42 @@
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -857,9 +862,9 @@
     <col customWidth="1" min="4" max="4" width="13.43"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="49" width="4.57"/>
-    <col customWidth="1" min="50" max="50" width="4.71"/>
-    <col customWidth="1" min="51" max="51" width="5.0"/>
+    <col customWidth="1" min="8" max="47" width="4.57"/>
+    <col customWidth="1" min="48" max="48" width="4.71"/>
+    <col customWidth="1" min="49" max="49" width="5.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -927,9 +932,7 @@
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="6"/>
+      <c r="AW1" s="6"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8"/>
@@ -1009,66 +1012,60 @@
         <v>10.0</v>
       </c>
       <c r="AE2" s="13">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="AF2" s="13">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG2" s="13">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AH2" s="13">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AI2" s="13">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AJ2" s="13">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="AK2" s="13">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="AL2" s="13">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AM2" s="13">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN2" s="13">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AO2" s="13">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AP2" s="13">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="AQ2" s="13">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="AR2" s="13">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="AS2" s="13">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AT2" s="13">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AU2" s="13">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AV2" s="13">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="AW2" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="AX2" s="13">
-        <v>30.0</v>
-      </c>
-      <c r="AY2" s="13">
         <v>31.0</v>
       </c>
     </row>
@@ -1122,10 +1119,8 @@
       <c r="AS3" s="20"/>
       <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="22"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="22"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="23" t="s">
@@ -1189,10 +1184,8 @@
       <c r="AS4" s="20"/>
       <c r="AT4" s="20"/>
       <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="22"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="22"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1244,10 +1237,8 @@
       <c r="AS5" s="20"/>
       <c r="AT5" s="20"/>
       <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="22"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="22"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="32" t="s">
@@ -1311,10 +1302,8 @@
       <c r="AS6" s="20"/>
       <c r="AT6" s="20"/>
       <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="22"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="22"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="23" t="s">
@@ -1379,10 +1368,8 @@
       <c r="AS7" s="20"/>
       <c r="AT7" s="20"/>
       <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="22"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="22"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -1400,24 +1387,24 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
@@ -1434,10 +1421,8 @@
       <c r="AS8" s="20"/>
       <c r="AT8" s="20"/>
       <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="22"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="22"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="23" t="s">
@@ -1447,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="26">
         <v>43816.0</v>
@@ -1467,7 +1452,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="34"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="20"/>
@@ -1501,20 +1486,18 @@
       <c r="AS9" s="20"/>
       <c r="AT9" s="20"/>
       <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="22"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="22"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>18</v>
+      <c r="A10" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="26">
         <v>43819.0</v>
@@ -1525,7 +1508,7 @@
       <c r="F10" s="27">
         <v>4.0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>1.0</v>
       </c>
       <c r="H10" s="20"/>
@@ -1568,20 +1551,18 @@
       <c r="AS10" s="20"/>
       <c r="AT10" s="20"/>
       <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="22"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="22"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="37" t="s">
-        <v>19</v>
+      <c r="A11" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" s="26">
         <v>43825.0</v>
@@ -1592,7 +1573,7 @@
       <c r="F11" s="27">
         <v>2.0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>1.0</v>
       </c>
       <c r="H11" s="20"/>
@@ -1607,7 +1588,7 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="29"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
@@ -1635,20 +1616,18 @@
       <c r="AS11" s="20"/>
       <c r="AT11" s="20"/>
       <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="22"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="22"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="37" t="s">
-        <v>20</v>
+      <c r="A12" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="26">
         <v>43827.0</v>
@@ -1659,7 +1638,7 @@
       <c r="F12" s="27">
         <v>3.0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>1.0</v>
       </c>
       <c r="H12" s="20"/>
@@ -1678,7 +1657,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
-      <c r="X12" s="34"/>
+      <c r="X12" s="29"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
@@ -1702,20 +1681,18 @@
       <c r="AS12" s="20"/>
       <c r="AT12" s="20"/>
       <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="22"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="22"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="35" t="s">
-        <v>21</v>
+      <c r="A13" s="36" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" s="26">
         <v>43833.0</v>
@@ -1726,7 +1703,7 @@
       <c r="F13" s="27">
         <v>4.0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>1.0</v>
       </c>
       <c r="H13" s="20"/>
@@ -1744,11 +1721,11 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
@@ -1769,81 +1746,101 @@
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
       <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="22"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="22"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="22"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="22"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
+      <c r="B15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1.0</v>
+      </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="44"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1858,11 +1855,11 @@
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="42"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="22"/>
@@ -1881,552 +1878,544 @@
       <c r="AU15" s="22"/>
       <c r="AV15" s="22"/>
       <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
+      <c r="D16" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
+      <c r="A17" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="A18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="48"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="40"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="35" t="s">
-        <v>26</v>
+      <c r="A26" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="28"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -2468,20 +2457,18 @@
       <c r="AS26" s="20"/>
       <c r="AT26" s="20"/>
       <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="49"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="50"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="37" t="s">
-        <v>27</v>
+      <c r="A27" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="28"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -2523,21 +2510,19 @@
       <c r="AS27" s="20"/>
       <c r="AT27" s="20"/>
       <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="22"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="22"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -2578,21 +2563,19 @@
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
       <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="22"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="22"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="A29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2633,19 +2616,17 @@
       <c r="AS29" s="20"/>
       <c r="AT29" s="20"/>
       <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="22"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="22"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -2686,19 +2667,17 @@
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="22"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="22"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -2739,18 +2718,16 @@
       <c r="AS31" s="20"/>
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AW31" s="20"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="22"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="22"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="39"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="28"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -2792,19 +2769,17 @@
       <c r="AS32" s="20"/>
       <c r="AT32" s="20"/>
       <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="20"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="22"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="22"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -2845,19 +2820,17 @@
       <c r="AS33" s="20"/>
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
-      <c r="AV33" s="20"/>
-      <c r="AW33" s="20"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="22"/>
+      <c r="AV33" s="21"/>
+      <c r="AW33" s="22"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -2898,19 +2871,17 @@
       <c r="AS34" s="20"/>
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
-      <c r="AV34" s="20"/>
-      <c r="AW34" s="20"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="22"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="22"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -2951,21 +2922,19 @@
       <c r="AS35" s="20"/>
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
-      <c r="AW35" s="20"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="22"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="22"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="A36" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -3006,18 +2975,16 @@
       <c r="AS36" s="20"/>
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="20"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="22"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="22"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="28"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -3059,19 +3026,17 @@
       <c r="AS37" s="20"/>
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="22"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="22"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -3112,19 +3077,17 @@
       <c r="AS38" s="20"/>
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
-      <c r="AV38" s="20"/>
-      <c r="AW38" s="20"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="22"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="22"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="36"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -3165,19 +3128,17 @@
       <c r="AS39" s="20"/>
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
-      <c r="AV39" s="20"/>
-      <c r="AW39" s="20"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="22"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="22"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="66"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -3218,19 +3179,17 @@
       <c r="AS40" s="20"/>
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
-      <c r="AV40" s="20"/>
-      <c r="AW40" s="20"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="22"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="22"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="67"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -3271,19 +3230,17 @@
       <c r="AS41" s="20"/>
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="22"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="22"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="67"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -3324,19 +3281,17 @@
       <c r="AS42" s="20"/>
       <c r="AT42" s="20"/>
       <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="22"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="22"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="67"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -3377,19 +3332,17 @@
       <c r="AS43" s="20"/>
       <c r="AT43" s="20"/>
       <c r="AU43" s="20"/>
-      <c r="AV43" s="20"/>
-      <c r="AW43" s="20"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="22"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="22"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="68"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="67"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -3430,19 +3383,17 @@
       <c r="AS44" s="20"/>
       <c r="AT44" s="20"/>
       <c r="AU44" s="20"/>
-      <c r="AV44" s="20"/>
-      <c r="AW44" s="20"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="22"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="22"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="67"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -3483,21 +3434,19 @@
       <c r="AS45" s="20"/>
       <c r="AT45" s="20"/>
       <c r="AU45" s="20"/>
-      <c r="AV45" s="20"/>
-      <c r="AW45" s="20"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="22"/>
+      <c r="AV45" s="21"/>
+      <c r="AW45" s="22"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="A46" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -3538,18 +3487,16 @@
       <c r="AS46" s="20"/>
       <c r="AT46" s="20"/>
       <c r="AU46" s="20"/>
-      <c r="AV46" s="20"/>
-      <c r="AW46" s="20"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="22"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="22"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="39"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="28"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -3591,19 +3538,17 @@
       <c r="AS47" s="20"/>
       <c r="AT47" s="20"/>
       <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="21"/>
-      <c r="AY47" s="22"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="22"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="37"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="66"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -3644,19 +3589,17 @@
       <c r="AS48" s="20"/>
       <c r="AT48" s="20"/>
       <c r="AU48" s="20"/>
-      <c r="AV48" s="20"/>
-      <c r="AW48" s="20"/>
-      <c r="AX48" s="21"/>
-      <c r="AY48" s="22"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="22"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="67"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -3697,19 +3640,17 @@
       <c r="AS49" s="20"/>
       <c r="AT49" s="20"/>
       <c r="AU49" s="20"/>
-      <c r="AV49" s="20"/>
-      <c r="AW49" s="20"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="22"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="22"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="67"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -3750,19 +3691,17 @@
       <c r="AS50" s="20"/>
       <c r="AT50" s="20"/>
       <c r="AU50" s="20"/>
-      <c r="AV50" s="20"/>
-      <c r="AW50" s="20"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="22"/>
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="22"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="67"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3803,19 +3742,17 @@
       <c r="AS51" s="20"/>
       <c r="AT51" s="20"/>
       <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
-      <c r="AW51" s="20"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="22"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="22"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="68"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="67"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="68"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -3856,19 +3793,17 @@
       <c r="AS52" s="20"/>
       <c r="AT52" s="20"/>
       <c r="AU52" s="20"/>
-      <c r="AV52" s="20"/>
-      <c r="AW52" s="20"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="22"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="22"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="66"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -3909,19 +3844,17 @@
       <c r="AS53" s="20"/>
       <c r="AT53" s="20"/>
       <c r="AU53" s="20"/>
-      <c r="AV53" s="20"/>
-      <c r="AW53" s="20"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="22"/>
+      <c r="AV53" s="21"/>
+      <c r="AW53" s="22"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="67"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -3962,19 +3895,17 @@
       <c r="AS54" s="20"/>
       <c r="AT54" s="20"/>
       <c r="AU54" s="20"/>
-      <c r="AV54" s="20"/>
-      <c r="AW54" s="20"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="22"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="22"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="67"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -4015,19 +3946,17 @@
       <c r="AS55" s="20"/>
       <c r="AT55" s="20"/>
       <c r="AU55" s="20"/>
-      <c r="AV55" s="20"/>
-      <c r="AW55" s="20"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="22"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="22"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="58"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="67"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="68"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -4068,19 +3997,17 @@
       <c r="AS56" s="20"/>
       <c r="AT56" s="20"/>
       <c r="AU56" s="20"/>
-      <c r="AV56" s="20"/>
-      <c r="AW56" s="20"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="22"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="22"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="37"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="67"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -4121,19 +4048,17 @@
       <c r="AS57" s="20"/>
       <c r="AT57" s="20"/>
       <c r="AU57" s="20"/>
-      <c r="AV57" s="20"/>
-      <c r="AW57" s="20"/>
-      <c r="AX57" s="21"/>
-      <c r="AY57" s="22"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="22"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="67"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -4174,18 +4099,16 @@
       <c r="AS58" s="20"/>
       <c r="AT58" s="20"/>
       <c r="AU58" s="20"/>
-      <c r="AV58" s="20"/>
-      <c r="AW58" s="20"/>
-      <c r="AX58" s="21"/>
-      <c r="AY58" s="22"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="22"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="37"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="39"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="28"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -4227,19 +4150,17 @@
       <c r="AS59" s="20"/>
       <c r="AT59" s="20"/>
       <c r="AU59" s="20"/>
-      <c r="AV59" s="20"/>
-      <c r="AW59" s="20"/>
-      <c r="AX59" s="21"/>
-      <c r="AY59" s="22"/>
+      <c r="AV59" s="21"/>
+      <c r="AW59" s="22"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="37"/>
-      <c r="B60" s="58"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="66"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -4280,19 +4201,17 @@
       <c r="AS60" s="20"/>
       <c r="AT60" s="20"/>
       <c r="AU60" s="20"/>
-      <c r="AV60" s="20"/>
-      <c r="AW60" s="20"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="22"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="22"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="37"/>
-      <c r="B61" s="58"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="67"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -4333,19 +4252,17 @@
       <c r="AS61" s="20"/>
       <c r="AT61" s="20"/>
       <c r="AU61" s="20"/>
-      <c r="AV61" s="20"/>
-      <c r="AW61" s="20"/>
-      <c r="AX61" s="21"/>
-      <c r="AY61" s="22"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="22"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="37"/>
-      <c r="B62" s="58"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="67"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="68"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -4386,19 +4303,17 @@
       <c r="AS62" s="20"/>
       <c r="AT62" s="20"/>
       <c r="AU62" s="20"/>
-      <c r="AV62" s="20"/>
-      <c r="AW62" s="20"/>
-      <c r="AX62" s="21"/>
-      <c r="AY62" s="22"/>
+      <c r="AV62" s="21"/>
+      <c r="AW62" s="22"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="37"/>
-      <c r="B63" s="68"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="67"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -4439,19 +4354,17 @@
       <c r="AS63" s="20"/>
       <c r="AT63" s="20"/>
       <c r="AU63" s="20"/>
-      <c r="AV63" s="20"/>
-      <c r="AW63" s="20"/>
-      <c r="AX63" s="21"/>
-      <c r="AY63" s="22"/>
+      <c r="AV63" s="21"/>
+      <c r="AW63" s="22"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="37"/>
-      <c r="B64" s="68"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="67"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -4492,19 +4405,17 @@
       <c r="AS64" s="20"/>
       <c r="AT64" s="20"/>
       <c r="AU64" s="20"/>
-      <c r="AV64" s="20"/>
-      <c r="AW64" s="20"/>
-      <c r="AX64" s="21"/>
-      <c r="AY64" s="22"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="22"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="67"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -4545,19 +4456,17 @@
       <c r="AS65" s="20"/>
       <c r="AT65" s="20"/>
       <c r="AU65" s="20"/>
-      <c r="AV65" s="20"/>
-      <c r="AW65" s="20"/>
-      <c r="AX65" s="21"/>
-      <c r="AY65" s="22"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="22"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="37"/>
-      <c r="B66" s="68"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="25"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="66"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
@@ -4598,19 +4507,17 @@
       <c r="AS66" s="20"/>
       <c r="AT66" s="20"/>
       <c r="AU66" s="20"/>
-      <c r="AV66" s="20"/>
-      <c r="AW66" s="20"/>
-      <c r="AX66" s="21"/>
-      <c r="AY66" s="22"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="22"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="37"/>
-      <c r="B67" s="68"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="67"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -4651,19 +4558,17 @@
       <c r="AS67" s="20"/>
       <c r="AT67" s="20"/>
       <c r="AU67" s="20"/>
-      <c r="AV67" s="20"/>
-      <c r="AW67" s="20"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="22"/>
+      <c r="AV67" s="21"/>
+      <c r="AW67" s="22"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="37"/>
-      <c r="B68" s="61"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="67"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -4704,19 +4609,17 @@
       <c r="AS68" s="20"/>
       <c r="AT68" s="20"/>
       <c r="AU68" s="20"/>
-      <c r="AV68" s="20"/>
-      <c r="AW68" s="20"/>
-      <c r="AX68" s="21"/>
-      <c r="AY68" s="22"/>
+      <c r="AV68" s="21"/>
+      <c r="AW68" s="22"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="37"/>
-      <c r="B69" s="61"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="62"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="67"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -4757,28 +4660,26 @@
       <c r="AS69" s="20"/>
       <c r="AT69" s="20"/>
       <c r="AU69" s="20"/>
-      <c r="AV69" s="20"/>
-      <c r="AW69" s="20"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="22"/>
+      <c r="AV69" s="21"/>
+      <c r="AW69" s="22"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="37"/>
-      <c r="B70" s="61"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="67"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="68"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
@@ -4810,19 +4711,17 @@
       <c r="AS70" s="20"/>
       <c r="AT70" s="20"/>
       <c r="AU70" s="20"/>
-      <c r="AV70" s="20"/>
-      <c r="AW70" s="20"/>
-      <c r="AX70" s="21"/>
-      <c r="AY70" s="22"/>
+      <c r="AV70" s="21"/>
+      <c r="AW70" s="22"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="37"/>
-      <c r="B71" s="61"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="62"/>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="67"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -4831,13 +4730,13 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
@@ -4863,19 +4762,17 @@
       <c r="AS71" s="20"/>
       <c r="AT71" s="20"/>
       <c r="AU71" s="20"/>
-      <c r="AV71" s="20"/>
-      <c r="AW71" s="20"/>
-      <c r="AX71" s="21"/>
-      <c r="AY71" s="22"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="22"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="37"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="62"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -4916,19 +4813,17 @@
       <c r="AS72" s="20"/>
       <c r="AT72" s="20"/>
       <c r="AU72" s="20"/>
-      <c r="AV72" s="20"/>
-      <c r="AW72" s="20"/>
-      <c r="AX72" s="21"/>
-      <c r="AY72" s="22"/>
+      <c r="AV72" s="21"/>
+      <c r="AW72" s="22"/>
     </row>
     <row r="73" ht="16.5" customHeight="1">
-      <c r="A73" s="37"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="67"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -4969,19 +4864,17 @@
       <c r="AS73" s="20"/>
       <c r="AT73" s="20"/>
       <c r="AU73" s="20"/>
-      <c r="AV73" s="20"/>
-      <c r="AW73" s="20"/>
-      <c r="AX73" s="21"/>
-      <c r="AY73" s="22"/>
+      <c r="AV73" s="21"/>
+      <c r="AW73" s="22"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="37"/>
-      <c r="B74" s="61"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="25"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="66"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -5022,19 +4915,17 @@
       <c r="AS74" s="20"/>
       <c r="AT74" s="20"/>
       <c r="AU74" s="20"/>
-      <c r="AV74" s="20"/>
-      <c r="AW74" s="20"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="22"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="22"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="37"/>
-      <c r="B75" s="65"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="67"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -5075,19 +4966,17 @@
       <c r="AS75" s="20"/>
       <c r="AT75" s="20"/>
       <c r="AU75" s="20"/>
-      <c r="AV75" s="20"/>
-      <c r="AW75" s="20"/>
-      <c r="AX75" s="21"/>
-      <c r="AY75" s="22"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="22"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="37"/>
-      <c r="B76" s="65"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="67"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="68"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -5128,19 +5017,17 @@
       <c r="AS76" s="20"/>
       <c r="AT76" s="20"/>
       <c r="AU76" s="20"/>
-      <c r="AV76" s="20"/>
-      <c r="AW76" s="20"/>
-      <c r="AX76" s="21"/>
-      <c r="AY76" s="22"/>
+      <c r="AV76" s="21"/>
+      <c r="AW76" s="22"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="37"/>
-      <c r="B77" s="65"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="67"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -5181,19 +5068,17 @@
       <c r="AS77" s="20"/>
       <c r="AT77" s="20"/>
       <c r="AU77" s="20"/>
-      <c r="AV77" s="20"/>
-      <c r="AW77" s="20"/>
-      <c r="AX77" s="21"/>
-      <c r="AY77" s="22"/>
+      <c r="AV77" s="21"/>
+      <c r="AW77" s="22"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="37"/>
-      <c r="B78" s="72"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="67"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="68"/>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -5234,19 +5119,17 @@
       <c r="AS78" s="20"/>
       <c r="AT78" s="20"/>
       <c r="AU78" s="20"/>
-      <c r="AV78" s="20"/>
-      <c r="AW78" s="20"/>
-      <c r="AX78" s="21"/>
-      <c r="AY78" s="22"/>
+      <c r="AV78" s="21"/>
+      <c r="AW78" s="22"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="37"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="67"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="68"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -5287,14 +5170,12 @@
       <c r="AS79" s="20"/>
       <c r="AT79" s="20"/>
       <c r="AU79" s="20"/>
-      <c r="AV79" s="20"/>
-      <c r="AW79" s="20"/>
-      <c r="AX79" s="21"/>
-      <c r="AY79" s="22"/>
+      <c r="AV79" s="21"/>
+      <c r="AW79" s="22"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -5344,19 +5225,17 @@
       <c r="AU80" s="20"/>
       <c r="AV80" s="20"/>
       <c r="AW80" s="20"/>
-      <c r="AX80" s="20"/>
-      <c r="AY80" s="20"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="35" t="s">
-        <v>33</v>
+      <c r="A81" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -5397,21 +5276,19 @@
       <c r="AS81" s="20"/>
       <c r="AT81" s="20"/>
       <c r="AU81" s="20"/>
-      <c r="AV81" s="20"/>
-      <c r="AW81" s="20"/>
-      <c r="AX81" s="21"/>
-      <c r="AY81" s="22"/>
+      <c r="AV81" s="21"/>
+      <c r="AW81" s="22"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="35" t="s">
-        <v>34</v>
+      <c r="A82" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="67"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -5452,16 +5329,14 @@
       <c r="AS82" s="20"/>
       <c r="AT82" s="20"/>
       <c r="AU82" s="20"/>
-      <c r="AV82" s="20"/>
-      <c r="AW82" s="20"/>
-      <c r="AX82" s="21"/>
-      <c r="AY82" s="22"/>
+      <c r="AV82" s="21"/>
+      <c r="AW82" s="22"/>
     </row>
     <row r="83" ht="16.5" customHeight="1"/>
     <row r="84" ht="16.5" customHeight="1"/>
     <row r="85" ht="16.5" customHeight="1"/>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="73"/>
+      <c r="A86" s="74"/>
     </row>
     <row r="87" ht="16.5" customHeight="1"/>
     <row r="88" ht="16.5" customHeight="1"/>
@@ -6409,6 +6284,8 @@
     <row r="1030" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AW1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -6416,8 +6293,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:AY1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/개발문서/영화관 - WBS.xlsx
+++ b/개발문서/영화관 - WBS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
   <si>
     <t>태스크</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">   화면 설계</t>
   </si>
   <si>
+    <t xml:space="preserve">      화면 목록</t>
+  </si>
+  <si>
     <t xml:space="preserve">      화면 흐름도</t>
   </si>
   <si>
@@ -79,19 +82,28 @@
     <t xml:space="preserve">   클래스 설계</t>
   </si>
   <si>
+    <t xml:space="preserve">     패키지 설계</t>
+  </si>
+  <si>
     <t xml:space="preserve">     클래스 다이어그램</t>
   </si>
   <si>
-    <t xml:space="preserve">   DB 설계</t>
-  </si>
-  <si>
-    <t>진행중</t>
+    <t xml:space="preserve">   DB 설계 및 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      개념 DB 설계</t>
   </si>
   <si>
     <t xml:space="preserve">      ERD</t>
   </si>
   <si>
-    <t xml:space="preserve">      테이블 목록</t>
+    <t xml:space="preserve">      테이블 정의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DB 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  개발환경 구축</t>
   </si>
   <si>
     <t xml:space="preserve">   개발환경 설정</t>
@@ -106,10 +118,301 @@
     <t xml:space="preserve">   공통</t>
   </si>
   <si>
-    <t xml:space="preserve">   관리자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   이용자</t>
+    <t>영우</t>
+  </si>
+  <si>
+    <t>미착수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   초기화면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      회원가입</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      로그인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        아이디 찾기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        비밀번호 찾기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      로그아웃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   영화</t>
+  </si>
+  <si>
+    <t>영주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      랭킹조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      영화검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      영화 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      영화 상세보기 &amp; 한줄평</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        영화 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        영화 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        한줄평 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        한줄평 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        한줄평 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        한줄평 신고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   상영스케줄</t>
+  </si>
+  <si>
+    <t>한나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      상영스케줄 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      상영스케줄 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      상영스케줄 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      상영스케줄 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   예매</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      영화 예매 [영화/날짜/시간 선택]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        영화 예매 [인원수 / 좌석 선택]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          결제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   리뷰</t>
+  </si>
+  <si>
+    <t>희홍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      리뷰 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      리뷰 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      리뷰 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 신고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰댓글 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰댓글 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰댓글 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰댓글 신고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   기프티콘</t>
+  </si>
+  <si>
+    <t>진주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      기프티콘 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      기프티콘 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      기프티콘 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      기프티콘 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        기프티콘 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        기프티콘 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        기프티콘 결제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   공지사항 게시판</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 게시글 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 게시글 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        공지사항 게시글 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        공지사항 게시글 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 게시글 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   건의사항 게시판</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 게시글 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 게시글 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        건의사항 게시글 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        건의사항 게시글 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 게시글 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   습득물 알림 게시판</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      습득물 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      습득물 알림 게시글 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      습득물 알림 게시글 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        습득물 알림 게시글 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        습득물 알림 게시글 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      습득물 알림 게시글 등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   마이페이지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 정보 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        내 정보 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        회원 탈퇴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 예매 내역 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        예매 취소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 리뷰 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 한줄평 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 기프티콘 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 기프티콘 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        내 기프티콘 기간 연장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        내 기프티콘 환불</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 건의사항 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   관리자페이지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      회원 관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        회원 검색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        회원 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          회원 예매내역</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          회원 강퇴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      신고 관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 신고 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          리뷰 신고글 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        리뷰 댓글 신고 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          리뷰 댓글 신고글 상세보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        한줄평 신고 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          한줄평 신고글 상세보기</t>
   </si>
   <si>
     <t>테스트</t>
@@ -125,12 +428,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yy/m/d"/>
-    <numFmt numFmtId="166" formatCode="yy-mm-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -177,8 +479,21 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <color rgb="FF980000"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF9900FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -188,7 +503,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFF9900"/>
+      <color theme="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -198,16 +513,11 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFF79646"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +560,14 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -378,6 +694,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -428,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -518,6 +845,9 @@
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="6" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -530,6 +860,15 @@
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -539,35 +878,58 @@
     <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -576,11 +938,11 @@
     <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -591,65 +953,122 @@
     <xf borderId="8" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="WBS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="AA17:AE21" displayName="Table_1" id="1">
+  <tableColumns count="5">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="WBS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,7 +1276,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="39.29"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="8.86"/>
     <col customWidth="1" min="3" max="3" width="12.0"/>
     <col customWidth="1" min="4" max="4" width="13.43"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
@@ -1405,7 +1824,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="20"/>
+      <c r="AF8" s="33"/>
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
       <c r="AI8" s="20"/>
@@ -1437,7 +1856,7 @@
       <c r="D9" s="26">
         <v>43816.0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="34">
         <v>43818.0</v>
       </c>
       <c r="F9" s="27">
@@ -1490,7 +1909,7 @@
       <c r="AW9" s="22"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -1502,13 +1921,13 @@
       <c r="D10" s="26">
         <v>43819.0</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="34">
         <v>43825.0</v>
       </c>
       <c r="F10" s="27">
         <v>4.0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="36">
         <v>1.0</v>
       </c>
       <c r="H10" s="20"/>
@@ -1555,7 +1974,7 @@
       <c r="AW10" s="22"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -1567,13 +1986,11 @@
       <c r="D11" s="26">
         <v>43825.0</v>
       </c>
-      <c r="E11" s="33">
-        <v>43826.0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="E11" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="36">
         <v>1.0</v>
       </c>
       <c r="H11" s="20"/>
@@ -1620,25 +2037,25 @@
       <c r="AW11" s="22"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="26">
-        <v>43827.0</v>
-      </c>
-      <c r="E12" s="26">
-        <v>43833.0</v>
+        <v>43825.0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>43826.0</v>
       </c>
       <c r="F12" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="36">
         <v>1.0</v>
       </c>
       <c r="H12" s="20"/>
@@ -1649,17 +2066,17 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
@@ -1685,7 +2102,7 @@
       <c r="AW12" s="22"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -1695,15 +2112,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="26">
+        <v>43827.0</v>
+      </c>
+      <c r="E13" s="26">
         <v>43833.0</v>
       </c>
-      <c r="E13" s="26">
-        <v>43837.0</v>
-      </c>
       <c r="F13" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="36">
         <v>1.0</v>
       </c>
       <c r="H13" s="20"/>
@@ -1720,12 +2137,12 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
@@ -1750,7 +2167,7 @@
       <c r="AW13" s="22"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -1760,62 +2177,62 @@
         <v>11</v>
       </c>
       <c r="D14" s="26">
+        <v>43833.0</v>
+      </c>
+      <c r="E14" s="26">
         <v>43837.0</v>
-      </c>
-      <c r="E14" s="26">
-        <v>43840.0</v>
       </c>
       <c r="F14" s="27">
         <v>4.0</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>1.0</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="41"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="21"/>
       <c r="AW14" s="22"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -1833,800 +2250,888 @@
       <c r="F15" s="27">
         <v>4.0</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="41">
         <v>1.0</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
       <c r="Z15" s="22"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="47"/>
       <c r="AW15" s="22"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="22"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" s="26">
-        <v>43840.0</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D17" s="26">
+        <v>43837.0</v>
+      </c>
+      <c r="E17" s="26">
         <v>43840.0</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
+      <c r="F17" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="F18" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="A19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
+      <c r="B19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="26">
+        <v>43840.0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>43843.0</v>
+      </c>
+      <c r="F19" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="40"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
+      <c r="A20" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26">
+        <v>43843.0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="F20" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
       <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
+      <c r="A21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="F21" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
       <c r="AE21" s="40"/>
       <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
+      <c r="A22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="F22" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
       <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="40"/>
-      <c r="AV23" s="40"/>
-      <c r="AW23" s="40"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="40"/>
-      <c r="AV24" s="40"/>
-      <c r="AW24" s="40"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
-      <c r="AS25" s="40"/>
-      <c r="AT25" s="40"/>
-      <c r="AU25" s="40"/>
-      <c r="AV25" s="40"/>
-      <c r="AW25" s="40"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>43844.0</v>
+      </c>
+      <c r="F23" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+    </row>
+    <row r="24" ht="16.5" hidden="1" customHeight="1">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+    </row>
+    <row r="25" ht="16.5" hidden="1" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+    </row>
+    <row r="26" ht="16.5" hidden="1" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="50"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+    </row>
+    <row r="27" ht="16.5" hidden="1" customHeight="1">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="22"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="22"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="22"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+    </row>
+    <row r="28" ht="16.5" hidden="1" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+    </row>
+    <row r="29" ht="16.5" hidden="1" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="39"/>
+    </row>
+    <row r="30" ht="16.5" hidden="1" customHeight="1">
+      <c r="A30" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -2668,16 +3173,18 @@
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
       <c r="AV30" s="21"/>
-      <c r="AW30" s="22"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="59"/>
+      <c r="AW30" s="60"/>
+    </row>
+    <row r="31" ht="16.5" hidden="1" customHeight="1">
+      <c r="A31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -2722,13 +3229,15 @@
       <c r="AW31" s="22"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -2773,13 +3282,19 @@
       <c r="AW32" s="22"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -2824,884 +3339,988 @@
       <c r="AW33" s="22"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="35"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
-      <c r="AT34" s="20"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
       <c r="AU34" s="20"/>
       <c r="AV34" s="21"/>
       <c r="AW34" s="22"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
       <c r="AU35" s="20"/>
       <c r="AV35" s="21"/>
       <c r="AW35" s="22"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="A36" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
       <c r="AU36" s="20"/>
       <c r="AV36" s="21"/>
       <c r="AW36" s="22"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D37" s="26"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
       <c r="AU37" s="20"/>
       <c r="AV37" s="21"/>
       <c r="AW37" s="22"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="35"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="45"/>
+      <c r="AO38" s="45"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="45"/>
+      <c r="AR38" s="45"/>
+      <c r="AS38" s="45"/>
+      <c r="AT38" s="45"/>
       <c r="AU38" s="20"/>
       <c r="AV38" s="21"/>
       <c r="AW38" s="22"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="35"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
       <c r="AU39" s="20"/>
       <c r="AV39" s="21"/>
       <c r="AW39" s="22"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="67"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20"/>
-      <c r="AT40" s="20"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="45"/>
+      <c r="AT40" s="45"/>
       <c r="AU40" s="20"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="22"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="68"/>
+      <c r="A41" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="45"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
+      <c r="AT41" s="45"/>
       <c r="AU41" s="20"/>
       <c r="AV41" s="21"/>
       <c r="AW41" s="22"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="68"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="45"/>
+      <c r="AK42" s="45"/>
+      <c r="AL42" s="45"/>
+      <c r="AM42" s="45"/>
+      <c r="AN42" s="45"/>
+      <c r="AO42" s="45"/>
+      <c r="AP42" s="45"/>
+      <c r="AQ42" s="45"/>
+      <c r="AR42" s="45"/>
+      <c r="AS42" s="45"/>
+      <c r="AT42" s="45"/>
       <c r="AU42" s="20"/>
       <c r="AV42" s="21"/>
       <c r="AW42" s="22"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="68"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
-      <c r="AT43" s="20"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="45"/>
+      <c r="AJ43" s="45"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="45"/>
+      <c r="AM43" s="45"/>
+      <c r="AN43" s="45"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="45"/>
+      <c r="AQ43" s="45"/>
+      <c r="AR43" s="45"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="45"/>
       <c r="AU43" s="20"/>
       <c r="AV43" s="21"/>
       <c r="AW43" s="22"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="68"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="20"/>
-      <c r="AL44" s="20"/>
-      <c r="AM44" s="20"/>
-      <c r="AN44" s="20"/>
-      <c r="AO44" s="20"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="20"/>
-      <c r="AS44" s="20"/>
-      <c r="AT44" s="20"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="45"/>
+      <c r="AN44" s="45"/>
+      <c r="AO44" s="45"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="45"/>
+      <c r="AR44" s="45"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="45"/>
       <c r="AU44" s="20"/>
       <c r="AV44" s="21"/>
       <c r="AW44" s="22"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="68"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-      <c r="AI45" s="20"/>
-      <c r="AJ45" s="20"/>
-      <c r="AK45" s="20"/>
-      <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
-      <c r="AN45" s="20"/>
-      <c r="AO45" s="20"/>
-      <c r="AP45" s="20"/>
-      <c r="AQ45" s="20"/>
-      <c r="AR45" s="20"/>
-      <c r="AS45" s="20"/>
-      <c r="AT45" s="20"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="45"/>
+      <c r="AN45" s="45"/>
+      <c r="AO45" s="45"/>
+      <c r="AP45" s="45"/>
+      <c r="AQ45" s="45"/>
+      <c r="AR45" s="45"/>
+      <c r="AS45" s="45"/>
+      <c r="AT45" s="45"/>
       <c r="AU45" s="20"/>
       <c r="AV45" s="21"/>
       <c r="AW45" s="22"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
+      <c r="A46" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="20"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="45"/>
+      <c r="AI46" s="45"/>
+      <c r="AJ46" s="45"/>
+      <c r="AK46" s="45"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="45"/>
+      <c r="AN46" s="45"/>
+      <c r="AO46" s="45"/>
+      <c r="AP46" s="45"/>
+      <c r="AQ46" s="45"/>
+      <c r="AR46" s="45"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="45"/>
       <c r="AU46" s="20"/>
       <c r="AV46" s="21"/>
       <c r="AW46" s="22"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="28"/>
+      <c r="A47" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
       <c r="AU47" s="20"/>
       <c r="AV47" s="21"/>
       <c r="AW47" s="22"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="67"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="20"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="20"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
+      <c r="AP48" s="45"/>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="45"/>
       <c r="AU48" s="20"/>
       <c r="AV48" s="21"/>
       <c r="AW48" s="22"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="68"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="76"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="20"/>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="20"/>
-      <c r="AO49" s="20"/>
-      <c r="AP49" s="20"/>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="20"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="20"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="45"/>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
+      <c r="AK49" s="45"/>
+      <c r="AL49" s="45"/>
+      <c r="AM49" s="45"/>
+      <c r="AN49" s="45"/>
+      <c r="AO49" s="45"/>
+      <c r="AP49" s="45"/>
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="45"/>
+      <c r="AS49" s="45"/>
+      <c r="AT49" s="45"/>
       <c r="AU49" s="20"/>
       <c r="AV49" s="21"/>
       <c r="AW49" s="22"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="68"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
-      <c r="AR50" s="20"/>
-      <c r="AS50" s="20"/>
-      <c r="AT50" s="20"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+      <c r="AO50" s="45"/>
+      <c r="AP50" s="45"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="45"/>
+      <c r="AS50" s="45"/>
+      <c r="AT50" s="45"/>
       <c r="AU50" s="20"/>
       <c r="AV50" s="21"/>
       <c r="AW50" s="22"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="68"/>
+      <c r="A51" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3746,13 +4365,19 @@
       <c r="AW51" s="22"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="68"/>
+      <c r="A52" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -3797,13 +4422,19 @@
       <c r="AW52" s="22"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="67"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -3848,13 +4479,19 @@
       <c r="AW53" s="22"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="68"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -3899,13 +4536,19 @@
       <c r="AW54" s="22"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="68"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -3950,13 +4593,19 @@
       <c r="AW55" s="22"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="68"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -4001,13 +4650,19 @@
       <c r="AW56" s="22"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="68"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="76"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -4052,13 +4707,19 @@
       <c r="AW57" s="22"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="36"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="68"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -4103,13 +4764,19 @@
       <c r="AW58" s="22"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="36"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="28"/>
+      <c r="A59" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="76"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -4154,13 +4821,19 @@
       <c r="AW59" s="22"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="67"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="76"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -4205,13 +4878,19 @@
       <c r="AW60" s="22"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="68"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="76"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -4256,13 +4935,19 @@
       <c r="AW61" s="22"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="36"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="68"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="76"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -4307,13 +4992,19 @@
       <c r="AW62" s="22"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="36"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="68"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -4358,13 +5049,19 @@
       <c r="AW63" s="22"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="36"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -4409,13 +5106,19 @@
       <c r="AW64" s="22"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -4460,13 +5163,19 @@
       <c r="AW65" s="22"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="67"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
@@ -4511,13 +5220,19 @@
       <c r="AW66" s="22"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="76"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -4562,13 +5277,19 @@
       <c r="AW67" s="22"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="68"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="76"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -4613,13 +5334,19 @@
       <c r="AW68" s="22"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="36"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -4664,22 +5391,28 @@
       <c r="AW69" s="22"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="68"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="76"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
@@ -4715,13 +5448,19 @@
       <c r="AW70" s="22"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="68"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="76"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -4730,13 +5469,13 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
@@ -4766,13 +5505,19 @@
       <c r="AW71" s="22"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="67"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -4817,13 +5562,19 @@
       <c r="AW72" s="22"/>
     </row>
     <row r="73" ht="16.5" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="76"/>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -4868,13 +5619,19 @@
       <c r="AW73" s="22"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="67"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -4919,13 +5676,19 @@
       <c r="AW74" s="22"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="76"/>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -4970,13 +5733,19 @@
       <c r="AW75" s="22"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="36"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="68"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="76"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -5021,13 +5790,19 @@
       <c r="AW76" s="22"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="76"/>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -5072,13 +5847,19 @@
       <c r="AW77" s="22"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="68"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="76"/>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -5123,13 +5904,19 @@
       <c r="AW78" s="22"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="68"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="76"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -5174,15 +5961,19 @@
       <c r="AW79" s="22"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
+      <c r="A80" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -5223,19 +6014,23 @@
       <c r="AS80" s="20"/>
       <c r="AT80" s="20"/>
       <c r="AU80" s="20"/>
-      <c r="AV80" s="20"/>
-      <c r="AW80" s="20"/>
+      <c r="AV80" s="21"/>
+      <c r="AW80" s="22"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="68"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -5280,15 +6075,19 @@
       <c r="AW81" s="22"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="68"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -5332,59 +6131,2679 @@
       <c r="AV82" s="21"/>
       <c r="AW82" s="22"/>
     </row>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1">
+      <c r="A83" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+      <c r="AL83" s="20"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="20"/>
+      <c r="AO83" s="20"/>
+      <c r="AP83" s="20"/>
+      <c r="AQ83" s="20"/>
+      <c r="AR83" s="20"/>
+      <c r="AS83" s="20"/>
+      <c r="AT83" s="20"/>
+      <c r="AU83" s="20"/>
+      <c r="AV83" s="21"/>
+      <c r="AW83" s="22"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c r="A84" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="20"/>
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="20"/>
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="20"/>
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="20"/>
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="22"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c r="A85" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="20"/>
+      <c r="AL85" s="20"/>
+      <c r="AM85" s="20"/>
+      <c r="AN85" s="20"/>
+      <c r="AO85" s="20"/>
+      <c r="AP85" s="20"/>
+      <c r="AQ85" s="20"/>
+      <c r="AR85" s="20"/>
+      <c r="AS85" s="20"/>
+      <c r="AT85" s="20"/>
+      <c r="AU85" s="20"/>
+      <c r="AV85" s="21"/>
+      <c r="AW85" s="22"/>
+    </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="74"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
+      <c r="A86" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="20"/>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+      <c r="AL86" s="20"/>
+      <c r="AM86" s="20"/>
+      <c r="AN86" s="20"/>
+      <c r="AO86" s="20"/>
+      <c r="AP86" s="20"/>
+      <c r="AQ86" s="20"/>
+      <c r="AR86" s="20"/>
+      <c r="AS86" s="20"/>
+      <c r="AT86" s="20"/>
+      <c r="AU86" s="20"/>
+      <c r="AV86" s="21"/>
+      <c r="AW86" s="22"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c r="A87" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+      <c r="AH87" s="20"/>
+      <c r="AI87" s="20"/>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="20"/>
+      <c r="AL87" s="20"/>
+      <c r="AM87" s="20"/>
+      <c r="AN87" s="20"/>
+      <c r="AO87" s="20"/>
+      <c r="AP87" s="20"/>
+      <c r="AQ87" s="20"/>
+      <c r="AR87" s="20"/>
+      <c r="AS87" s="20"/>
+      <c r="AT87" s="20"/>
+      <c r="AU87" s="20"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="22"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c r="A88" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="20"/>
+      <c r="AI88" s="20"/>
+      <c r="AJ88" s="20"/>
+      <c r="AK88" s="20"/>
+      <c r="AL88" s="20"/>
+      <c r="AM88" s="20"/>
+      <c r="AN88" s="20"/>
+      <c r="AO88" s="20"/>
+      <c r="AP88" s="20"/>
+      <c r="AQ88" s="20"/>
+      <c r="AR88" s="20"/>
+      <c r="AS88" s="20"/>
+      <c r="AT88" s="20"/>
+      <c r="AU88" s="20"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="22"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c r="A89" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
+      <c r="AI89" s="20"/>
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="20"/>
+      <c r="AL89" s="20"/>
+      <c r="AM89" s="20"/>
+      <c r="AN89" s="20"/>
+      <c r="AO89" s="20"/>
+      <c r="AP89" s="20"/>
+      <c r="AQ89" s="20"/>
+      <c r="AR89" s="20"/>
+      <c r="AS89" s="20"/>
+      <c r="AT89" s="20"/>
+      <c r="AU89" s="20"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="22"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c r="A90" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="20"/>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="20"/>
+      <c r="AI90" s="20"/>
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="20"/>
+      <c r="AL90" s="20"/>
+      <c r="AM90" s="20"/>
+      <c r="AN90" s="20"/>
+      <c r="AO90" s="20"/>
+      <c r="AP90" s="20"/>
+      <c r="AQ90" s="20"/>
+      <c r="AR90" s="20"/>
+      <c r="AS90" s="20"/>
+      <c r="AT90" s="20"/>
+      <c r="AU90" s="20"/>
+      <c r="AV90" s="21"/>
+      <c r="AW90" s="22"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c r="A91" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="20"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="20"/>
+      <c r="AI91" s="20"/>
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="20"/>
+      <c r="AL91" s="20"/>
+      <c r="AM91" s="20"/>
+      <c r="AN91" s="20"/>
+      <c r="AO91" s="20"/>
+      <c r="AP91" s="20"/>
+      <c r="AQ91" s="20"/>
+      <c r="AR91" s="20"/>
+      <c r="AS91" s="20"/>
+      <c r="AT91" s="20"/>
+      <c r="AU91" s="20"/>
+      <c r="AV91" s="21"/>
+      <c r="AW91" s="22"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c r="A92" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="20"/>
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="20"/>
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="20"/>
+      <c r="AI92" s="20"/>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="20"/>
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="20"/>
+      <c r="AO92" s="20"/>
+      <c r="AP92" s="20"/>
+      <c r="AQ92" s="20"/>
+      <c r="AR92" s="20"/>
+      <c r="AS92" s="20"/>
+      <c r="AT92" s="20"/>
+      <c r="AU92" s="20"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="22"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c r="A93" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="20"/>
+      <c r="AB93" s="20"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="20"/>
+      <c r="AE93" s="20"/>
+      <c r="AF93" s="20"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="20"/>
+      <c r="AI93" s="20"/>
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="20"/>
+      <c r="AL93" s="20"/>
+      <c r="AM93" s="20"/>
+      <c r="AN93" s="20"/>
+      <c r="AO93" s="20"/>
+      <c r="AP93" s="20"/>
+      <c r="AQ93" s="20"/>
+      <c r="AR93" s="20"/>
+      <c r="AS93" s="20"/>
+      <c r="AT93" s="20"/>
+      <c r="AU93" s="20"/>
+      <c r="AV93" s="21"/>
+      <c r="AW93" s="22"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c r="A94" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
+      <c r="AA94" s="20"/>
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="20"/>
+      <c r="AD94" s="20"/>
+      <c r="AE94" s="20"/>
+      <c r="AF94" s="20"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="20"/>
+      <c r="AI94" s="20"/>
+      <c r="AJ94" s="20"/>
+      <c r="AK94" s="20"/>
+      <c r="AL94" s="20"/>
+      <c r="AM94" s="20"/>
+      <c r="AN94" s="20"/>
+      <c r="AO94" s="20"/>
+      <c r="AP94" s="20"/>
+      <c r="AQ94" s="20"/>
+      <c r="AR94" s="20"/>
+      <c r="AS94" s="20"/>
+      <c r="AT94" s="20"/>
+      <c r="AU94" s="20"/>
+      <c r="AV94" s="21"/>
+      <c r="AW94" s="22"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c r="A95" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
+      <c r="AA95" s="20"/>
+      <c r="AB95" s="20"/>
+      <c r="AC95" s="20"/>
+      <c r="AD95" s="20"/>
+      <c r="AE95" s="20"/>
+      <c r="AF95" s="20"/>
+      <c r="AG95" s="20"/>
+      <c r="AH95" s="20"/>
+      <c r="AI95" s="20"/>
+      <c r="AJ95" s="20"/>
+      <c r="AK95" s="20"/>
+      <c r="AL95" s="20"/>
+      <c r="AM95" s="20"/>
+      <c r="AN95" s="20"/>
+      <c r="AO95" s="20"/>
+      <c r="AP95" s="20"/>
+      <c r="AQ95" s="20"/>
+      <c r="AR95" s="20"/>
+      <c r="AS95" s="20"/>
+      <c r="AT95" s="20"/>
+      <c r="AU95" s="20"/>
+      <c r="AV95" s="21"/>
+      <c r="AW95" s="22"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c r="A96" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="20"/>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="20"/>
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="20"/>
+      <c r="AI96" s="20"/>
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="20"/>
+      <c r="AL96" s="20"/>
+      <c r="AM96" s="20"/>
+      <c r="AN96" s="20"/>
+      <c r="AO96" s="20"/>
+      <c r="AP96" s="20"/>
+      <c r="AQ96" s="20"/>
+      <c r="AR96" s="20"/>
+      <c r="AS96" s="20"/>
+      <c r="AT96" s="20"/>
+      <c r="AU96" s="20"/>
+      <c r="AV96" s="21"/>
+      <c r="AW96" s="22"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c r="A97" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="20"/>
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="20"/>
+      <c r="AL97" s="20"/>
+      <c r="AM97" s="20"/>
+      <c r="AN97" s="20"/>
+      <c r="AO97" s="20"/>
+      <c r="AP97" s="20"/>
+      <c r="AQ97" s="20"/>
+      <c r="AR97" s="20"/>
+      <c r="AS97" s="20"/>
+      <c r="AT97" s="20"/>
+      <c r="AU97" s="20"/>
+      <c r="AV97" s="21"/>
+      <c r="AW97" s="22"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c r="A98" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+      <c r="AA98" s="20"/>
+      <c r="AB98" s="20"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="20"/>
+      <c r="AE98" s="20"/>
+      <c r="AF98" s="20"/>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="20"/>
+      <c r="AI98" s="20"/>
+      <c r="AJ98" s="20"/>
+      <c r="AK98" s="20"/>
+      <c r="AL98" s="20"/>
+      <c r="AM98" s="20"/>
+      <c r="AN98" s="20"/>
+      <c r="AO98" s="20"/>
+      <c r="AP98" s="20"/>
+      <c r="AQ98" s="20"/>
+      <c r="AR98" s="20"/>
+      <c r="AS98" s="20"/>
+      <c r="AT98" s="20"/>
+      <c r="AU98" s="20"/>
+      <c r="AV98" s="21"/>
+      <c r="AW98" s="22"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c r="A99" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+      <c r="AA99" s="20"/>
+      <c r="AB99" s="20"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="20"/>
+      <c r="AE99" s="20"/>
+      <c r="AF99" s="20"/>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="20"/>
+      <c r="AI99" s="20"/>
+      <c r="AJ99" s="20"/>
+      <c r="AK99" s="20"/>
+      <c r="AL99" s="20"/>
+      <c r="AM99" s="20"/>
+      <c r="AN99" s="20"/>
+      <c r="AO99" s="20"/>
+      <c r="AP99" s="20"/>
+      <c r="AQ99" s="20"/>
+      <c r="AR99" s="20"/>
+      <c r="AS99" s="20"/>
+      <c r="AT99" s="20"/>
+      <c r="AU99" s="20"/>
+      <c r="AV99" s="21"/>
+      <c r="AW99" s="22"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c r="A100" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="20"/>
+      <c r="AB100" s="20"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="20"/>
+      <c r="AE100" s="20"/>
+      <c r="AF100" s="20"/>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="20"/>
+      <c r="AI100" s="20"/>
+      <c r="AJ100" s="20"/>
+      <c r="AK100" s="20"/>
+      <c r="AL100" s="20"/>
+      <c r="AM100" s="20"/>
+      <c r="AN100" s="20"/>
+      <c r="AO100" s="20"/>
+      <c r="AP100" s="20"/>
+      <c r="AQ100" s="20"/>
+      <c r="AR100" s="20"/>
+      <c r="AS100" s="20"/>
+      <c r="AT100" s="20"/>
+      <c r="AU100" s="20"/>
+      <c r="AV100" s="21"/>
+      <c r="AW100" s="22"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c r="A101" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
+      <c r="AA101" s="20"/>
+      <c r="AB101" s="20"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="20"/>
+      <c r="AE101" s="20"/>
+      <c r="AF101" s="20"/>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="20"/>
+      <c r="AI101" s="20"/>
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="20"/>
+      <c r="AL101" s="20"/>
+      <c r="AM101" s="20"/>
+      <c r="AN101" s="20"/>
+      <c r="AO101" s="20"/>
+      <c r="AP101" s="20"/>
+      <c r="AQ101" s="20"/>
+      <c r="AR101" s="20"/>
+      <c r="AS101" s="20"/>
+      <c r="AT101" s="20"/>
+      <c r="AU101" s="20"/>
+      <c r="AV101" s="21"/>
+      <c r="AW101" s="22"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c r="A102" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="20"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="20"/>
+      <c r="AE102" s="20"/>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="20"/>
+      <c r="AI102" s="20"/>
+      <c r="AJ102" s="20"/>
+      <c r="AK102" s="20"/>
+      <c r="AL102" s="20"/>
+      <c r="AM102" s="20"/>
+      <c r="AN102" s="20"/>
+      <c r="AO102" s="20"/>
+      <c r="AP102" s="20"/>
+      <c r="AQ102" s="20"/>
+      <c r="AR102" s="20"/>
+      <c r="AS102" s="20"/>
+      <c r="AT102" s="20"/>
+      <c r="AU102" s="20"/>
+      <c r="AV102" s="21"/>
+      <c r="AW102" s="22"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c r="A103" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="20"/>
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="20"/>
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="20"/>
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="20"/>
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="20"/>
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="22"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c r="A104" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="20"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="20"/>
+      <c r="AI104" s="20"/>
+      <c r="AJ104" s="20"/>
+      <c r="AK104" s="20"/>
+      <c r="AL104" s="20"/>
+      <c r="AM104" s="20"/>
+      <c r="AN104" s="20"/>
+      <c r="AO104" s="20"/>
+      <c r="AP104" s="20"/>
+      <c r="AQ104" s="20"/>
+      <c r="AR104" s="20"/>
+      <c r="AS104" s="20"/>
+      <c r="AT104" s="20"/>
+      <c r="AU104" s="20"/>
+      <c r="AV104" s="21"/>
+      <c r="AW104" s="22"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c r="A105" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="20"/>
+      <c r="W105" s="20"/>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="20"/>
+      <c r="AA105" s="20"/>
+      <c r="AB105" s="20"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="20"/>
+      <c r="AE105" s="20"/>
+      <c r="AF105" s="20"/>
+      <c r="AG105" s="20"/>
+      <c r="AH105" s="20"/>
+      <c r="AI105" s="20"/>
+      <c r="AJ105" s="20"/>
+      <c r="AK105" s="20"/>
+      <c r="AL105" s="20"/>
+      <c r="AM105" s="20"/>
+      <c r="AN105" s="20"/>
+      <c r="AO105" s="20"/>
+      <c r="AP105" s="20"/>
+      <c r="AQ105" s="20"/>
+      <c r="AR105" s="20"/>
+      <c r="AS105" s="20"/>
+      <c r="AT105" s="20"/>
+      <c r="AU105" s="20"/>
+      <c r="AV105" s="21"/>
+      <c r="AW105" s="22"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c r="A106" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
+      <c r="AA106" s="20"/>
+      <c r="AB106" s="20"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="20"/>
+      <c r="AE106" s="20"/>
+      <c r="AF106" s="20"/>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="20"/>
+      <c r="AI106" s="20"/>
+      <c r="AJ106" s="20"/>
+      <c r="AK106" s="20"/>
+      <c r="AL106" s="20"/>
+      <c r="AM106" s="20"/>
+      <c r="AN106" s="20"/>
+      <c r="AO106" s="20"/>
+      <c r="AP106" s="20"/>
+      <c r="AQ106" s="20"/>
+      <c r="AR106" s="20"/>
+      <c r="AS106" s="20"/>
+      <c r="AT106" s="20"/>
+      <c r="AU106" s="20"/>
+      <c r="AV106" s="21"/>
+      <c r="AW106" s="22"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c r="A107" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+      <c r="AI107" s="20"/>
+      <c r="AJ107" s="20"/>
+      <c r="AK107" s="20"/>
+      <c r="AL107" s="20"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="20"/>
+      <c r="AO107" s="20"/>
+      <c r="AP107" s="20"/>
+      <c r="AQ107" s="20"/>
+      <c r="AR107" s="20"/>
+      <c r="AS107" s="20"/>
+      <c r="AT107" s="20"/>
+      <c r="AU107" s="20"/>
+      <c r="AV107" s="21"/>
+      <c r="AW107" s="22"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c r="A108" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="20"/>
+      <c r="AB108" s="20"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="20"/>
+      <c r="AE108" s="20"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
+      <c r="AI108" s="20"/>
+      <c r="AJ108" s="20"/>
+      <c r="AK108" s="20"/>
+      <c r="AL108" s="20"/>
+      <c r="AM108" s="20"/>
+      <c r="AN108" s="20"/>
+      <c r="AO108" s="20"/>
+      <c r="AP108" s="20"/>
+      <c r="AQ108" s="20"/>
+      <c r="AR108" s="20"/>
+      <c r="AS108" s="20"/>
+      <c r="AT108" s="20"/>
+      <c r="AU108" s="20"/>
+      <c r="AV108" s="21"/>
+      <c r="AW108" s="22"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c r="A109" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
+      <c r="AA109" s="20"/>
+      <c r="AB109" s="20"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="20"/>
+      <c r="AE109" s="20"/>
+      <c r="AF109" s="20"/>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="20"/>
+      <c r="AI109" s="20"/>
+      <c r="AJ109" s="20"/>
+      <c r="AK109" s="20"/>
+      <c r="AL109" s="20"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="20"/>
+      <c r="AO109" s="20"/>
+      <c r="AP109" s="20"/>
+      <c r="AQ109" s="20"/>
+      <c r="AR109" s="20"/>
+      <c r="AS109" s="20"/>
+      <c r="AT109" s="20"/>
+      <c r="AU109" s="20"/>
+      <c r="AV109" s="21"/>
+      <c r="AW109" s="22"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c r="A110" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+      <c r="AA110" s="20"/>
+      <c r="AB110" s="20"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="20"/>
+      <c r="AE110" s="20"/>
+      <c r="AF110" s="20"/>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="20"/>
+      <c r="AI110" s="20"/>
+      <c r="AJ110" s="20"/>
+      <c r="AK110" s="20"/>
+      <c r="AL110" s="20"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="20"/>
+      <c r="AO110" s="20"/>
+      <c r="AP110" s="20"/>
+      <c r="AQ110" s="20"/>
+      <c r="AR110" s="20"/>
+      <c r="AS110" s="20"/>
+      <c r="AT110" s="20"/>
+      <c r="AU110" s="20"/>
+      <c r="AV110" s="21"/>
+      <c r="AW110" s="22"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c r="A111" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
+      <c r="AA111" s="20"/>
+      <c r="AB111" s="20"/>
+      <c r="AC111" s="20"/>
+      <c r="AD111" s="20"/>
+      <c r="AE111" s="20"/>
+      <c r="AF111" s="20"/>
+      <c r="AG111" s="20"/>
+      <c r="AH111" s="20"/>
+      <c r="AI111" s="20"/>
+      <c r="AJ111" s="20"/>
+      <c r="AK111" s="20"/>
+      <c r="AL111" s="20"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="20"/>
+      <c r="AO111" s="20"/>
+      <c r="AP111" s="20"/>
+      <c r="AQ111" s="20"/>
+      <c r="AR111" s="20"/>
+      <c r="AS111" s="20"/>
+      <c r="AT111" s="20"/>
+      <c r="AU111" s="20"/>
+      <c r="AV111" s="21"/>
+      <c r="AW111" s="22"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c r="A112" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="20"/>
+      <c r="AI112" s="20"/>
+      <c r="AJ112" s="20"/>
+      <c r="AK112" s="20"/>
+      <c r="AL112" s="20"/>
+      <c r="AM112" s="20"/>
+      <c r="AN112" s="20"/>
+      <c r="AO112" s="20"/>
+      <c r="AP112" s="20"/>
+      <c r="AQ112" s="20"/>
+      <c r="AR112" s="20"/>
+      <c r="AS112" s="20"/>
+      <c r="AT112" s="20"/>
+      <c r="AU112" s="20"/>
+      <c r="AV112" s="21"/>
+      <c r="AW112" s="22"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c r="A113" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="20"/>
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="20"/>
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+      <c r="AL113" s="20"/>
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="20"/>
+      <c r="AO113" s="20"/>
+      <c r="AP113" s="20"/>
+      <c r="AQ113" s="20"/>
+      <c r="AR113" s="20"/>
+      <c r="AS113" s="20"/>
+      <c r="AT113" s="20"/>
+      <c r="AU113" s="20"/>
+      <c r="AV113" s="21"/>
+      <c r="AW113" s="22"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c r="A114" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+      <c r="W114" s="20"/>
+      <c r="X114" s="20"/>
+      <c r="Y114" s="20"/>
+      <c r="Z114" s="20"/>
+      <c r="AA114" s="20"/>
+      <c r="AB114" s="20"/>
+      <c r="AC114" s="20"/>
+      <c r="AD114" s="20"/>
+      <c r="AE114" s="20"/>
+      <c r="AF114" s="20"/>
+      <c r="AG114" s="20"/>
+      <c r="AH114" s="20"/>
+      <c r="AI114" s="20"/>
+      <c r="AJ114" s="20"/>
+      <c r="AK114" s="20"/>
+      <c r="AL114" s="20"/>
+      <c r="AM114" s="20"/>
+      <c r="AN114" s="20"/>
+      <c r="AO114" s="20"/>
+      <c r="AP114" s="20"/>
+      <c r="AQ114" s="20"/>
+      <c r="AR114" s="20"/>
+      <c r="AS114" s="20"/>
+      <c r="AT114" s="20"/>
+      <c r="AU114" s="20"/>
+      <c r="AV114" s="21"/>
+      <c r="AW114" s="22"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c r="A115" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="20"/>
+      <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="20"/>
+      <c r="AA115" s="20"/>
+      <c r="AB115" s="20"/>
+      <c r="AC115" s="20"/>
+      <c r="AD115" s="20"/>
+      <c r="AE115" s="20"/>
+      <c r="AF115" s="20"/>
+      <c r="AG115" s="20"/>
+      <c r="AH115" s="20"/>
+      <c r="AI115" s="20"/>
+      <c r="AJ115" s="20"/>
+      <c r="AK115" s="20"/>
+      <c r="AL115" s="20"/>
+      <c r="AM115" s="20"/>
+      <c r="AN115" s="20"/>
+      <c r="AO115" s="20"/>
+      <c r="AP115" s="20"/>
+      <c r="AQ115" s="20"/>
+      <c r="AR115" s="20"/>
+      <c r="AS115" s="20"/>
+      <c r="AT115" s="20"/>
+      <c r="AU115" s="20"/>
+      <c r="AV115" s="21"/>
+      <c r="AW115" s="22"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c r="A116" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="20"/>
+      <c r="AA116" s="20"/>
+      <c r="AB116" s="20"/>
+      <c r="AC116" s="20"/>
+      <c r="AD116" s="20"/>
+      <c r="AE116" s="20"/>
+      <c r="AF116" s="20"/>
+      <c r="AG116" s="20"/>
+      <c r="AH116" s="20"/>
+      <c r="AI116" s="20"/>
+      <c r="AJ116" s="20"/>
+      <c r="AK116" s="20"/>
+      <c r="AL116" s="20"/>
+      <c r="AM116" s="20"/>
+      <c r="AN116" s="20"/>
+      <c r="AO116" s="20"/>
+      <c r="AP116" s="20"/>
+      <c r="AQ116" s="20"/>
+      <c r="AR116" s="20"/>
+      <c r="AS116" s="20"/>
+      <c r="AT116" s="20"/>
+      <c r="AU116" s="20"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="22"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c r="A117" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="20"/>
+      <c r="Z117" s="20"/>
+      <c r="AA117" s="20"/>
+      <c r="AB117" s="20"/>
+      <c r="AC117" s="20"/>
+      <c r="AD117" s="20"/>
+      <c r="AE117" s="20"/>
+      <c r="AF117" s="20"/>
+      <c r="AG117" s="20"/>
+      <c r="AH117" s="20"/>
+      <c r="AI117" s="20"/>
+      <c r="AJ117" s="20"/>
+      <c r="AK117" s="20"/>
+      <c r="AL117" s="20"/>
+      <c r="AM117" s="20"/>
+      <c r="AN117" s="20"/>
+      <c r="AO117" s="20"/>
+      <c r="AP117" s="20"/>
+      <c r="AQ117" s="20"/>
+      <c r="AR117" s="20"/>
+      <c r="AS117" s="20"/>
+      <c r="AT117" s="20"/>
+      <c r="AU117" s="20"/>
+      <c r="AV117" s="21"/>
+      <c r="AW117" s="22"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c r="A118" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="20"/>
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="20"/>
+      <c r="AA118" s="20"/>
+      <c r="AB118" s="20"/>
+      <c r="AC118" s="20"/>
+      <c r="AD118" s="20"/>
+      <c r="AE118" s="20"/>
+      <c r="AF118" s="20"/>
+      <c r="AG118" s="20"/>
+      <c r="AH118" s="20"/>
+      <c r="AI118" s="20"/>
+      <c r="AJ118" s="20"/>
+      <c r="AK118" s="20"/>
+      <c r="AL118" s="20"/>
+      <c r="AM118" s="20"/>
+      <c r="AN118" s="20"/>
+      <c r="AO118" s="20"/>
+      <c r="AP118" s="20"/>
+      <c r="AQ118" s="20"/>
+      <c r="AR118" s="20"/>
+      <c r="AS118" s="20"/>
+      <c r="AT118" s="20"/>
+      <c r="AU118" s="20"/>
+      <c r="AV118" s="21"/>
+      <c r="AW118" s="22"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c r="A119" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="20"/>
+      <c r="P119" s="20"/>
+      <c r="Q119" s="20"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="20"/>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="20"/>
+      <c r="AA119" s="20"/>
+      <c r="AB119" s="20"/>
+      <c r="AC119" s="20"/>
+      <c r="AD119" s="20"/>
+      <c r="AE119" s="20"/>
+      <c r="AF119" s="20"/>
+      <c r="AG119" s="20"/>
+      <c r="AH119" s="20"/>
+      <c r="AI119" s="20"/>
+      <c r="AJ119" s="20"/>
+      <c r="AK119" s="20"/>
+      <c r="AL119" s="20"/>
+      <c r="AM119" s="20"/>
+      <c r="AN119" s="20"/>
+      <c r="AO119" s="20"/>
+      <c r="AP119" s="20"/>
+      <c r="AQ119" s="20"/>
+      <c r="AR119" s="20"/>
+      <c r="AS119" s="20"/>
+      <c r="AT119" s="20"/>
+      <c r="AU119" s="20"/>
+      <c r="AV119" s="21"/>
+      <c r="AW119" s="22"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c r="A120" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="20"/>
+      <c r="AA120" s="20"/>
+      <c r="AB120" s="20"/>
+      <c r="AC120" s="20"/>
+      <c r="AD120" s="20"/>
+      <c r="AE120" s="20"/>
+      <c r="AF120" s="20"/>
+      <c r="AG120" s="20"/>
+      <c r="AH120" s="20"/>
+      <c r="AI120" s="20"/>
+      <c r="AJ120" s="20"/>
+      <c r="AK120" s="20"/>
+      <c r="AL120" s="20"/>
+      <c r="AM120" s="20"/>
+      <c r="AN120" s="20"/>
+      <c r="AO120" s="20"/>
+      <c r="AP120" s="20"/>
+      <c r="AQ120" s="20"/>
+      <c r="AR120" s="20"/>
+      <c r="AS120" s="20"/>
+      <c r="AT120" s="20"/>
+      <c r="AU120" s="20"/>
+      <c r="AV120" s="21"/>
+      <c r="AW120" s="22"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c r="A121" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="82"/>
+      <c r="N121" s="82"/>
+      <c r="O121" s="82"/>
+      <c r="P121" s="82"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="20"/>
+      <c r="AA121" s="20"/>
+      <c r="AB121" s="20"/>
+      <c r="AC121" s="20"/>
+      <c r="AD121" s="20"/>
+      <c r="AE121" s="20"/>
+      <c r="AF121" s="20"/>
+      <c r="AG121" s="20"/>
+      <c r="AH121" s="20"/>
+      <c r="AI121" s="20"/>
+      <c r="AJ121" s="20"/>
+      <c r="AK121" s="20"/>
+      <c r="AL121" s="20"/>
+      <c r="AM121" s="20"/>
+      <c r="AN121" s="20"/>
+      <c r="AO121" s="20"/>
+      <c r="AP121" s="20"/>
+      <c r="AQ121" s="20"/>
+      <c r="AR121" s="20"/>
+      <c r="AS121" s="20"/>
+      <c r="AT121" s="20"/>
+      <c r="AU121" s="20"/>
+      <c r="AV121" s="21"/>
+      <c r="AW121" s="22"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c r="A122" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="82"/>
+      <c r="Q122" s="82"/>
+      <c r="R122" s="82"/>
+      <c r="S122" s="82"/>
+      <c r="T122" s="82"/>
+      <c r="U122" s="82"/>
+      <c r="V122" s="82"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="20"/>
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="20"/>
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="20"/>
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="20"/>
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="20"/>
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="22"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c r="A123" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+      <c r="AA123" s="20"/>
+      <c r="AB123" s="20"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="20"/>
+      <c r="AE123" s="20"/>
+      <c r="AF123" s="20"/>
+      <c r="AG123" s="20"/>
+      <c r="AH123" s="20"/>
+      <c r="AI123" s="20"/>
+      <c r="AJ123" s="20"/>
+      <c r="AK123" s="20"/>
+      <c r="AL123" s="20"/>
+      <c r="AM123" s="20"/>
+      <c r="AN123" s="20"/>
+      <c r="AO123" s="20"/>
+      <c r="AP123" s="20"/>
+      <c r="AQ123" s="20"/>
+      <c r="AR123" s="20"/>
+      <c r="AS123" s="20"/>
+      <c r="AT123" s="20"/>
+      <c r="AU123" s="20"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="22"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c r="A124" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+      <c r="AA124" s="20"/>
+      <c r="AB124" s="20"/>
+      <c r="AC124" s="20"/>
+      <c r="AD124" s="20"/>
+      <c r="AE124" s="20"/>
+      <c r="AF124" s="20"/>
+      <c r="AG124" s="20"/>
+      <c r="AH124" s="20"/>
+      <c r="AI124" s="20"/>
+      <c r="AJ124" s="20"/>
+      <c r="AK124" s="20"/>
+      <c r="AL124" s="20"/>
+      <c r="AM124" s="20"/>
+      <c r="AN124" s="20"/>
+      <c r="AO124" s="20"/>
+      <c r="AP124" s="20"/>
+      <c r="AQ124" s="20"/>
+      <c r="AR124" s="20"/>
+      <c r="AS124" s="20"/>
+      <c r="AT124" s="20"/>
+      <c r="AU124" s="20"/>
+      <c r="AV124" s="21"/>
+      <c r="AW124" s="22"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c r="A125" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="20"/>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+      <c r="AA125" s="20"/>
+      <c r="AB125" s="20"/>
+      <c r="AC125" s="20"/>
+      <c r="AD125" s="20"/>
+      <c r="AE125" s="20"/>
+      <c r="AF125" s="20"/>
+      <c r="AG125" s="20"/>
+      <c r="AH125" s="20"/>
+      <c r="AI125" s="20"/>
+      <c r="AJ125" s="20"/>
+      <c r="AK125" s="20"/>
+      <c r="AL125" s="20"/>
+      <c r="AM125" s="20"/>
+      <c r="AN125" s="20"/>
+      <c r="AO125" s="20"/>
+      <c r="AP125" s="20"/>
+      <c r="AQ125" s="20"/>
+      <c r="AR125" s="20"/>
+      <c r="AS125" s="20"/>
+      <c r="AT125" s="20"/>
+      <c r="AU125" s="20"/>
+      <c r="AV125" s="21"/>
+      <c r="AW125" s="22"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c r="A126" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="20"/>
+      <c r="AC126" s="20"/>
+      <c r="AD126" s="20"/>
+      <c r="AE126" s="20"/>
+      <c r="AF126" s="20"/>
+      <c r="AG126" s="20"/>
+      <c r="AH126" s="20"/>
+      <c r="AI126" s="20"/>
+      <c r="AJ126" s="20"/>
+      <c r="AK126" s="20"/>
+      <c r="AL126" s="20"/>
+      <c r="AM126" s="20"/>
+      <c r="AN126" s="20"/>
+      <c r="AO126" s="20"/>
+      <c r="AP126" s="20"/>
+      <c r="AQ126" s="20"/>
+      <c r="AR126" s="20"/>
+      <c r="AS126" s="20"/>
+      <c r="AT126" s="20"/>
+      <c r="AU126" s="20"/>
+      <c r="AV126" s="21"/>
+      <c r="AW126" s="22"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c r="A127" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="20"/>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+      <c r="AA127" s="20"/>
+      <c r="AB127" s="20"/>
+      <c r="AC127" s="20"/>
+      <c r="AD127" s="20"/>
+      <c r="AE127" s="20"/>
+      <c r="AF127" s="20"/>
+      <c r="AG127" s="20"/>
+      <c r="AH127" s="20"/>
+      <c r="AI127" s="20"/>
+      <c r="AJ127" s="20"/>
+      <c r="AK127" s="20"/>
+      <c r="AL127" s="20"/>
+      <c r="AM127" s="20"/>
+      <c r="AN127" s="20"/>
+      <c r="AO127" s="20"/>
+      <c r="AP127" s="20"/>
+      <c r="AQ127" s="20"/>
+      <c r="AR127" s="20"/>
+      <c r="AS127" s="20"/>
+      <c r="AT127" s="20"/>
+      <c r="AU127" s="20"/>
+      <c r="AV127" s="20"/>
+      <c r="AW127" s="20"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c r="A128" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+      <c r="V128" s="20"/>
+      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="20"/>
+      <c r="AA128" s="20"/>
+      <c r="AB128" s="20"/>
+      <c r="AC128" s="20"/>
+      <c r="AD128" s="20"/>
+      <c r="AE128" s="20"/>
+      <c r="AF128" s="20"/>
+      <c r="AG128" s="20"/>
+      <c r="AH128" s="20"/>
+      <c r="AI128" s="20"/>
+      <c r="AJ128" s="20"/>
+      <c r="AK128" s="20"/>
+      <c r="AL128" s="20"/>
+      <c r="AM128" s="20"/>
+      <c r="AN128" s="20"/>
+      <c r="AO128" s="20"/>
+      <c r="AP128" s="20"/>
+      <c r="AQ128" s="20"/>
+      <c r="AR128" s="20"/>
+      <c r="AS128" s="20"/>
+      <c r="AT128" s="20"/>
+      <c r="AU128" s="20"/>
+      <c r="AV128" s="21"/>
+      <c r="AW128" s="22"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c r="A129" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+      <c r="T129" s="20"/>
+      <c r="U129" s="20"/>
+      <c r="V129" s="20"/>
+      <c r="W129" s="20"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="20"/>
+      <c r="AA129" s="20"/>
+      <c r="AB129" s="20"/>
+      <c r="AC129" s="20"/>
+      <c r="AD129" s="20"/>
+      <c r="AE129" s="20"/>
+      <c r="AF129" s="20"/>
+      <c r="AG129" s="20"/>
+      <c r="AH129" s="20"/>
+      <c r="AI129" s="20"/>
+      <c r="AJ129" s="20"/>
+      <c r="AK129" s="20"/>
+      <c r="AL129" s="20"/>
+      <c r="AM129" s="20"/>
+      <c r="AN129" s="20"/>
+      <c r="AO129" s="20"/>
+      <c r="AP129" s="20"/>
+      <c r="AQ129" s="20"/>
+      <c r="AR129" s="20"/>
+      <c r="AS129" s="20"/>
+      <c r="AT129" s="20"/>
+      <c r="AU129" s="20"/>
+      <c r="AV129" s="21"/>
+      <c r="AW129" s="22"/>
+    </row>
     <row r="130" ht="16.5" customHeight="1"/>
     <row r="131" ht="16.5" customHeight="1"/>
     <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1">
+      <c r="A133" s="83"/>
+    </row>
     <row r="134" ht="16.5" customHeight="1"/>
     <row r="135" ht="16.5" customHeight="1"/>
     <row r="136" ht="16.5" customHeight="1"/>
@@ -6282,6 +9701,53 @@
     <row r="1028" ht="16.5" customHeight="1"/>
     <row r="1029" ht="16.5" customHeight="1"/>
     <row r="1030" ht="16.5" customHeight="1"/>
+    <row r="1031" ht="16.5" customHeight="1"/>
+    <row r="1032" ht="16.5" customHeight="1"/>
+    <row r="1033" ht="16.5" customHeight="1"/>
+    <row r="1034" ht="16.5" customHeight="1"/>
+    <row r="1035" ht="16.5" customHeight="1"/>
+    <row r="1036" ht="16.5" customHeight="1"/>
+    <row r="1037" ht="16.5" customHeight="1"/>
+    <row r="1038" ht="16.5" customHeight="1"/>
+    <row r="1039" ht="16.5" customHeight="1"/>
+    <row r="1040" ht="16.5" customHeight="1"/>
+    <row r="1041" ht="16.5" customHeight="1"/>
+    <row r="1042" ht="16.5" customHeight="1"/>
+    <row r="1043" ht="16.5" customHeight="1"/>
+    <row r="1044" ht="16.5" customHeight="1"/>
+    <row r="1045" ht="16.5" customHeight="1"/>
+    <row r="1046" ht="16.5" customHeight="1"/>
+    <row r="1047" ht="16.5" customHeight="1"/>
+    <row r="1048" ht="16.5" customHeight="1"/>
+    <row r="1049" ht="16.5" customHeight="1"/>
+    <row r="1050" ht="16.5" customHeight="1"/>
+    <row r="1051" ht="16.5" customHeight="1"/>
+    <row r="1052" ht="16.5" customHeight="1"/>
+    <row r="1053" ht="16.5" customHeight="1"/>
+    <row r="1054" ht="16.5" customHeight="1"/>
+    <row r="1055" ht="16.5" customHeight="1"/>
+    <row r="1056" ht="16.5" customHeight="1"/>
+    <row r="1057" ht="16.5" customHeight="1"/>
+    <row r="1058" ht="16.5" customHeight="1"/>
+    <row r="1059" ht="16.5" customHeight="1"/>
+    <row r="1060" ht="16.5" customHeight="1"/>
+    <row r="1061" ht="16.5" customHeight="1"/>
+    <row r="1062" ht="16.5" customHeight="1"/>
+    <row r="1063" ht="16.5" customHeight="1"/>
+    <row r="1064" ht="16.5" customHeight="1"/>
+    <row r="1065" ht="16.5" customHeight="1"/>
+    <row r="1066" ht="16.5" customHeight="1"/>
+    <row r="1067" ht="16.5" customHeight="1"/>
+    <row r="1068" ht="16.5" customHeight="1"/>
+    <row r="1069" ht="16.5" customHeight="1"/>
+    <row r="1070" ht="16.5" customHeight="1"/>
+    <row r="1071" ht="16.5" customHeight="1"/>
+    <row r="1072" ht="16.5" customHeight="1"/>
+    <row r="1073" ht="16.5" customHeight="1"/>
+    <row r="1074" ht="16.5" customHeight="1"/>
+    <row r="1075" ht="16.5" customHeight="1"/>
+    <row r="1076" ht="16.5" customHeight="1"/>
+    <row r="1077" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="H1:V1"/>
@@ -6298,5 +9764,8 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>